--- a/素材.xlsx
+++ b/素材.xlsx
@@ -101,6 +101,44 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
+          <a:ext cx="13866667" cy="8314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>150667</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>84686</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8915400"/>
           <a:ext cx="13866667" cy="8314286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -402,7 +440,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
